--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/115.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/115.xlsx
@@ -479,13 +479,13 @@
         <v>-176.9075967493816</v>
       </c>
       <c r="E2" t="n">
-        <v>-18.88649766796719</v>
+        <v>-16.66786146275432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4810488069592939</v>
+        <v>-2.501851618710322</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.28641426817623</v>
+        <v>-9.701373796888072</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-176.6247997688739</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.42780850827202</v>
+        <v>-17.00915325411992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3684745348417103</v>
+        <v>-3.228162478859207</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.91520664379198</v>
+        <v>-9.749862966994135</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-176.6378574636744</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.86254877689183</v>
+        <v>-17.68833897707861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128962088431547</v>
+        <v>-3.846367619166868</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.3602065842598</v>
+        <v>-8.971171287273124</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-176.6670990181376</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.96491969167816</v>
+        <v>-18.03607936850167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4925086390553425</v>
+        <v>-2.759164939122923</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.587924392541312</v>
+        <v>-8.911173395002344</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-176.6348079020254</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.18125335653228</v>
+        <v>-18.83886896306971</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3989232696088566</v>
+        <v>-2.637037547587387</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.677209971386128</v>
+        <v>-8.546517039819758</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-176.563155763438</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.68168232141596</v>
+        <v>-19.64185411791242</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04214826290360926</v>
+        <v>-4.006008360392242</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.679070329436773</v>
+        <v>-7.609709989015851</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-176.5559813931269</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.32578453109767</v>
+        <v>-20.9057406171198</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1402021846264555</v>
+        <v>-3.589870762901042</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.164106347137754</v>
+        <v>-8.647025242989796</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-176.410162958738</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.2522343117918</v>
+        <v>-20.50859681130657</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.424649493150434</v>
+        <v>-3.403252481784032</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.887109885078955</v>
+        <v>-8.456148636891703</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-176.1646090105712</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.47449345296862</v>
+        <v>-21.57407274483394</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2380018779922221</v>
+        <v>-2.989329604403545</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.458886662612741</v>
+        <v>-8.324639241178557</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-175.9457432569871</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.24549472488798</v>
+        <v>-22.36934304684067</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7223606773043529</v>
+        <v>-3.388140561558397</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.725159179046747</v>
+        <v>-8.49326597702532</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-175.5869874346384</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.98435077665737</v>
+        <v>-23.14969209988956</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6012306431696681</v>
+        <v>-2.994370170483334</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.408899102839753</v>
+        <v>-8.400800190151358</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-175.0902869495592</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.36579109241407</v>
+        <v>-23.63547360019997</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.527543531671526</v>
+        <v>-2.685468049611047</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.138757028408367</v>
+        <v>-8.349494952089954</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-174.6575432350057</v>
       </c>
       <c r="E14" t="n">
-        <v>-23.82090874165518</v>
+        <v>-23.97989924496725</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4565355959364533</v>
+        <v>-2.254678098539703</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.517486480795149</v>
+        <v>-7.590481525008275</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-174.1591647919363</v>
       </c>
       <c r="E15" t="n">
-        <v>-24.33573583176193</v>
+        <v>-23.95475997165758</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.360730617372388</v>
+        <v>-1.815674615931942</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.153563476642602</v>
+        <v>-7.298969601561604</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-173.5960591104509</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.91437423949564</v>
+        <v>-24.80394135238577</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.203060145914381</v>
+        <v>-1.761719536148669</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.901070717000779</v>
+        <v>-7.57806344756631</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-173.1645058600444</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.72251240757608</v>
+        <v>-25.89912778064339</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2064922287349552</v>
+        <v>-1.072467348050999</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.808086695398924</v>
+        <v>-7.209891896446413</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-172.7861581808357</v>
       </c>
       <c r="E18" t="n">
-        <v>-26.37546860869378</v>
+        <v>-25.96655207434501</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.248699025017032</v>
+        <v>-0.8472845807677637</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.160046299748131</v>
+        <v>-7.127683245979238</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-172.4084741176192</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.93665326191261</v>
+        <v>-26.87059300112686</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0116799721089953</v>
+        <v>-1.119592485241192</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.826405804129254</v>
+        <v>-5.920528782455535</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-172.1944557765349</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.47001702155526</v>
+        <v>-27.85914041160332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1376107415791196</v>
+        <v>-0.921133029492514</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.006472816044599</v>
+        <v>-5.323077476297927</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-172.097990133338</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.9630635860699</v>
+        <v>-28.87126016868862</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6029757492132858</v>
+        <v>-0.372112225358566</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.448150585408562</v>
+        <v>-5.633035622653468</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-172.0088708628573</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.45122114371762</v>
+        <v>-29.6479106880427</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6536503053888593</v>
+        <v>-0.756217049857739</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.52425286629896</v>
+        <v>-5.401858932951395</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-172.0477447728682</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.74756585045224</v>
+        <v>-29.57267131686431</v>
       </c>
       <c r="F23" t="n">
-        <v>1.122784737317417</v>
+        <v>-0.1960639770878257</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.042438704123275</v>
+        <v>-5.037642588386832</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-172.2083251751775</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.75648095447406</v>
+        <v>-30.23928006965786</v>
       </c>
       <c r="F24" t="n">
-        <v>1.50124764789217</v>
+        <v>0.596409812991019</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.193587240420818</v>
+        <v>-4.91170666050197</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-172.3424008587657</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.4412157002267</v>
+        <v>-30.79271809149607</v>
       </c>
       <c r="F25" t="n">
-        <v>1.821458041647631</v>
+        <v>0.6967469009207146</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.409593341814854</v>
+        <v>-5.301560957076634</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-172.5353928907543</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.10498891997523</v>
+        <v>-31.1805458947244</v>
       </c>
       <c r="F26" t="n">
-        <v>1.742564137836225</v>
+        <v>0.2903286490809418</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.248353895344</v>
+        <v>-4.656006712355451</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-172.83458093006</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.30041719146642</v>
+        <v>-31.21379114141942</v>
       </c>
       <c r="F27" t="n">
-        <v>1.943140533558278</v>
+        <v>0.9217732199842088</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.515645678771973</v>
+        <v>-5.355222696447894</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-173.0733217875972</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.07695535460034</v>
+        <v>-31.00784906066093</v>
       </c>
       <c r="F28" t="n">
-        <v>1.899467035216126</v>
+        <v>0.459258503353454</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.74420186079338</v>
+        <v>-6.271363915225352</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-173.3049302162981</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.92928779119203</v>
+        <v>-30.59372328949546</v>
       </c>
       <c r="F29" t="n">
-        <v>1.895423826537188</v>
+        <v>0.2779790177351146</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.344958135593022</v>
+        <v>-6.234662140675421</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-173.636918021622</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.80872732635735</v>
+        <v>-30.5458843573027</v>
       </c>
       <c r="F30" t="n">
-        <v>2.337971839123462</v>
+        <v>1.28634157304319</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.688283753815258</v>
+        <v>-6.606119104409885</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-173.8961642066278</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.57387899249822</v>
+        <v>-30.26905167697394</v>
       </c>
       <c r="F31" t="n">
-        <v>2.081699877173514</v>
+        <v>1.006485041967244</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.541193093217254</v>
+        <v>-6.474961717191158</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-174.0987376824085</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.44117423460612</v>
+        <v>-29.9727778608389</v>
       </c>
       <c r="F32" t="n">
-        <v>1.945629038053537</v>
+        <v>0.3777098688133126</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.882890672152807</v>
+        <v>-6.150170324001397</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-174.4054848872493</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.86764239454489</v>
+        <v>-29.14034866214019</v>
       </c>
       <c r="F33" t="n">
-        <v>1.99137547530726</v>
+        <v>0.7779581939870387</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.425526433318564</v>
+        <v>-6.342181179692615</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-174.641959247056</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.18432790528709</v>
+        <v>-28.82407147440916</v>
       </c>
       <c r="F34" t="n">
-        <v>1.780649501329492</v>
+        <v>0.2328583733603566</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.151781160826262</v>
+        <v>-5.493161136191032</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-174.801489132532</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.62881694453731</v>
+        <v>-28.84160100853048</v>
       </c>
       <c r="F35" t="n">
-        <v>2.198943150849002</v>
+        <v>1.008924656393835</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.396299950268147</v>
+        <v>-5.737000353678415</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-175.0526032232627</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.04701046035383</v>
+        <v>-27.70411000385345</v>
       </c>
       <c r="F36" t="n">
-        <v>2.018964141057261</v>
+        <v>0.4736077385078494</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.219269011617156</v>
+        <v>-4.943098973594431</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-175.2697622213595</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.2292360597387</v>
+        <v>-27.16991511304342</v>
       </c>
       <c r="F37" t="n">
-        <v>2.299231348710028</v>
+        <v>0.5860500074400262</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.027844836749968</v>
+        <v>-4.585355674121663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-175.4033549768147</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.53777892954405</v>
+        <v>-26.17074144614172</v>
       </c>
       <c r="F38" t="n">
-        <v>1.854145941559825</v>
+        <v>-0.4024582909815071</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.838156259320535</v>
+        <v>-4.215502304639547</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-175.6140095934281</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.92270275363122</v>
+        <v>-26.16739736544474</v>
       </c>
       <c r="F39" t="n">
-        <v>1.745531765004442</v>
+        <v>-0.5212464908269396</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.143445404118173</v>
+        <v>-4.99999234650472</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-175.8308027253319</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.38356263237531</v>
+        <v>-25.48746851344228</v>
       </c>
       <c r="F40" t="n">
-        <v>1.857377575098855</v>
+        <v>-0.3612879641552163</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.893920271644567</v>
+        <v>-4.610475391403872</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-175.9637363939537</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.7107326183436</v>
+        <v>-24.77630868557397</v>
       </c>
       <c r="F41" t="n">
-        <v>2.105739123938135</v>
+        <v>-0.1195754646549413</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.092511730578652</v>
+        <v>-4.54182884598552</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-176.1543584855823</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.16162870109292</v>
+        <v>-24.69228621355916</v>
       </c>
       <c r="F42" t="n">
-        <v>2.064436793926438</v>
+        <v>-0.06234475027083491</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.760293935958048</v>
+        <v>-4.809418858832375</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-176.3867055172605</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.42189751709435</v>
+        <v>-23.92935669197709</v>
       </c>
       <c r="F43" t="n">
-        <v>1.657182521912422</v>
+        <v>-0.8339962601034888</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.659604839533935</v>
+        <v>-5.186146171969374</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-176.5378557954428</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.82031011112733</v>
+        <v>-23.58916981616341</v>
       </c>
       <c r="F44" t="n">
-        <v>1.794641838982603</v>
+        <v>-0.3136641482645978</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.526276733266297</v>
+        <v>-4.987334707726277</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-176.7242420993068</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.10568397739037</v>
+        <v>-23.33792864227952</v>
       </c>
       <c r="F45" t="n">
-        <v>1.746670903604433</v>
+        <v>-0.827034314325002</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.374067282478634</v>
+        <v>-4.944096330995281</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-176.9866551093735</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.4268795969673</v>
+        <v>-22.45811763353011</v>
       </c>
       <c r="F46" t="n">
-        <v>1.701520925188474</v>
+        <v>-0.348258760854888</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.159870113625356</v>
+        <v>-4.583752079869315</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-177.1775206361348</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.17604909966023</v>
+        <v>-22.80564290865102</v>
       </c>
       <c r="F47" t="n">
-        <v>1.796211210186883</v>
+        <v>-0.6969769536513305</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.530706173487721</v>
+        <v>-5.037178132734475</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-177.3795810124038</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.15302930176514</v>
+        <v>-21.43792857061096</v>
       </c>
       <c r="F48" t="n">
-        <v>1.664173801732111</v>
+        <v>-0.6122846876957628</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.293838679792559</v>
+        <v>-4.371138949240918</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-178.1825367685838</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.62451788143791</v>
+        <v>-21.17497822528081</v>
       </c>
       <c r="F49" t="n">
-        <v>1.749956316219</v>
+        <v>-0.4569071604583389</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.958340361564255</v>
+        <v>-3.965312267232042</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-177.1758003418445</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.38243870642261</v>
+        <v>-21.48520037800716</v>
       </c>
       <c r="F50" t="n">
-        <v>1.694881653863203</v>
+        <v>-0.4412965615322795</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.104213659452396</v>
+        <v>-4.672732004847167</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-179.9754344514214</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.98086546038795</v>
+        <v>-20.7657439054857</v>
       </c>
       <c r="F51" t="n">
-        <v>1.835147260874993</v>
+        <v>0.2903188710672079</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.184755158577953</v>
+        <v>-5.08518818016758</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-175.8004661749632</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.42861302271497</v>
+        <v>-20.17614923336322</v>
       </c>
       <c r="F52" t="n">
-        <v>1.765527803090124</v>
+        <v>0.3928217890389468</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.023848164574049</v>
+        <v>-4.745485316033728</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-183.3764029630179</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.43811725206426</v>
+        <v>-19.9540074283512</v>
       </c>
       <c r="F53" t="n">
-        <v>1.72073472217545</v>
+        <v>0.1638842644819205</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.166475161902558</v>
+        <v>-5.46798275082642</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-172.3099268328594</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.66829423079983</v>
+        <v>-19.00422495332251</v>
       </c>
       <c r="F54" t="n">
-        <v>1.917683474802251</v>
+        <v>0.7984382437525455</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.820357920759315</v>
+        <v>-4.386011308130073</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-190.263575440971</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.64716883212789</v>
+        <v>-19.05149676071871</v>
       </c>
       <c r="F55" t="n">
-        <v>1.800479313181699</v>
+        <v>0.6964340044812319</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.264001070883777</v>
+        <v>-5.6796083020677</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-161.7747970690996</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.39178666942772</v>
+        <v>-19.08417488261717</v>
       </c>
       <c r="F56" t="n">
-        <v>1.692236701148202</v>
+        <v>0.06911575537364113</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.872010278308271</v>
+        <v>-5.078275124457762</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-216.8087047990225</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.62338870272721</v>
+        <v>-19.12634745585117</v>
       </c>
       <c r="F57" t="n">
-        <v>1.69783461401082</v>
+        <v>0.5682002433689198</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.082702029237971</v>
+        <v>-5.326817566551117</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>71.3731062371466</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.00904587784442</v>
+        <v>-18.17378802492206</v>
       </c>
       <c r="F58" t="n">
-        <v>1.761978384104744</v>
+        <v>0.3595618753233243</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.369364057872661</v>
+        <v>-5.652963214643013</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>210.1042533951657</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.89024301097838</v>
+        <v>-17.44804917857661</v>
       </c>
       <c r="F59" t="n">
-        <v>1.784638930932895</v>
+        <v>0.3456673178075521</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.030462990864984</v>
+        <v>-5.391103117844182</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>165.5091142351992</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.5945803207017</v>
+        <v>-16.76721586030377</v>
       </c>
       <c r="F60" t="n">
-        <v>1.706664160412468</v>
+        <v>-0.07351124195486865</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.806184689852128</v>
+        <v>-5.511900699511917</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>186.6556783691589</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.72440789805263</v>
+        <v>-16.50983409379503</v>
       </c>
       <c r="F61" t="n">
-        <v>1.76282418229272</v>
+        <v>-0.1180256494781293</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.66306390283006</v>
+        <v>-5.346446929121781</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>178.4534820591334</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.62565973735468</v>
+        <v>-15.92976320704931</v>
       </c>
       <c r="F62" t="n">
-        <v>1.597487748067391</v>
+        <v>-0.3988306478862562</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.937855422791881</v>
+        <v>-6.522570866061176</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>176.0985693815264</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.34623832788989</v>
+        <v>-15.24517513150267</v>
       </c>
       <c r="F63" t="n">
-        <v>1.832692979427802</v>
+        <v>-0.09633312600962762</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.692608171326826</v>
+        <v>-6.268430511105202</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>189.6946326806089</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.72405588955821</v>
+        <v>-15.77789598674233</v>
       </c>
       <c r="F64" t="n">
-        <v>1.657221633967358</v>
+        <v>-0.2172871558971035</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.617371244651872</v>
+        <v>-6.549421291774272</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>161.077581495069</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.46900129031812</v>
+        <v>-15.2667307627789</v>
       </c>
       <c r="F65" t="n">
-        <v>1.826826171187504</v>
+        <v>-0.403841879924844</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.675609094450563</v>
+        <v>-6.827155993869977</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>220.2024683140924</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.67669119103154</v>
+        <v>-15.28301115564573</v>
       </c>
       <c r="F66" t="n">
-        <v>1.750934117592383</v>
+        <v>-0.7143280390220117</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.701823949270961</v>
+        <v>-7.063818149276728</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-27.42941624119329</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.4245846629322</v>
+        <v>-15.17895842249718</v>
       </c>
       <c r="F67" t="n">
-        <v>1.547336315626577</v>
+        <v>-1.588736695183484</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.4597252182282</v>
+        <v>-7.12698411799727</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-218.086735329316</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.69679967627516</v>
+        <v>-15.5784978416752</v>
       </c>
       <c r="F68" t="n">
-        <v>1.671184637579267</v>
+        <v>-1.290512165308539</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.323336593661874</v>
+        <v>-7.330997485546764</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-160.2832684036101</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.71141291780037</v>
+        <v>-16.00763530842553</v>
       </c>
       <c r="F69" t="n">
-        <v>1.917360800349035</v>
+        <v>-1.091500251783899</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.936122360795343</v>
+        <v>-6.577660195437573</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-191.6078465436992</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.65856275356902</v>
+        <v>-15.49266643711964</v>
       </c>
       <c r="F70" t="n">
-        <v>1.759152538135667</v>
+        <v>-1.249478730674522</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.82912644551291</v>
+        <v>-6.051431941317182</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-172.0029066192676</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.01315753261949</v>
+        <v>-15.41212982700095</v>
       </c>
       <c r="F71" t="n">
-        <v>1.746910464940912</v>
+        <v>-1.707720455303593</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.959159361152246</v>
+        <v>-6.791280461480555</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-184.2886159400763</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.08941626172963</v>
+        <v>-15.86790260316223</v>
       </c>
       <c r="F72" t="n">
-        <v>1.713533215060484</v>
+        <v>-1.530542846446595</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.986396018407829</v>
+        <v>-7.066815110486147</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-176.2581415656464</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.36166549812066</v>
+        <v>-16.32389538463252</v>
       </c>
       <c r="F73" t="n">
-        <v>1.670685958878841</v>
+        <v>-1.595302631405751</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.057355064074233</v>
+        <v>-7.264453213081184</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-180.9942603790753</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.55011226780589</v>
+        <v>-16.59502992745789</v>
       </c>
       <c r="F74" t="n">
-        <v>1.7519216969795</v>
+        <v>-1.54107376723793</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.879150763775183</v>
+        <v>-7.202758835427584</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-178.0148451411844</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.69519354658159</v>
+        <v>-16.94528326841055</v>
       </c>
       <c r="F75" t="n">
-        <v>1.691136674603147</v>
+        <v>-1.718158484964456</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.822140054700088</v>
+        <v>-7.394383459576316</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-179.3042262544625</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.49503271644323</v>
+        <v>-16.62630979339241</v>
       </c>
       <c r="F76" t="n">
-        <v>1.445234296217925</v>
+        <v>-1.886354988206931</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.959149583138513</v>
+        <v>-7.625936602807141</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-178.5923957040262</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.33338748240242</v>
+        <v>-16.68435697192329</v>
       </c>
       <c r="F77" t="n">
-        <v>1.322750007181105</v>
+        <v>-2.024987666925172</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.554129587262677</v>
+        <v>-7.033310746427179</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-178.462605440656</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.76104358007207</v>
+        <v>-17.42438638534074</v>
       </c>
       <c r="F78" t="n">
-        <v>1.167269810799476</v>
+        <v>-2.309195414112672</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.2854639929051</v>
+        <v>-6.755605378372676</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-178.2576283937625</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.08877815539572</v>
+        <v>-17.87001447225317</v>
       </c>
       <c r="F79" t="n">
-        <v>1.227399706255663</v>
+        <v>-1.80610682949339</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.166680682066534</v>
+        <v>-6.988312327224094</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-178.1419142816871</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.41614605520434</v>
+        <v>-18.08704237608239</v>
       </c>
       <c r="F80" t="n">
-        <v>1.006558377070248</v>
+        <v>-2.15924957350439</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.056458022251937</v>
+        <v>-6.767945231704769</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-178.0593253864891</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.98581313533727</v>
+        <v>-18.89940953510272</v>
       </c>
       <c r="F81" t="n">
-        <v>1.059036976779713</v>
+        <v>-2.063244145658781</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.722128176664825</v>
+        <v>-6.452589621768155</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-177.9138548242222</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.35427802686918</v>
+        <v>-19.44051503711913</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6973629157859458</v>
+        <v>-2.244689857510596</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.837288733415007</v>
+        <v>-6.804026102382602</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-177.848451655003</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.87622351097415</v>
+        <v>-20.25734585940894</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7341673594800815</v>
+        <v>-2.06538553066649</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.792099642944112</v>
+        <v>-6.110975155949339</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-177.8617463333018</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.9313298609368</v>
+        <v>-21.82967980184999</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3157905968438348</v>
+        <v>-2.901337258812809</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.38607740066056</v>
+        <v>-5.995257252416329</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-177.8238771085879</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.57364758311209</v>
+        <v>-22.72816681683102</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5159856500302681</v>
+        <v>-2.526726885649185</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.586575572272741</v>
+        <v>-6.180824397056954</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-177.8448619949215</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.46111966562196</v>
+        <v>-24.26907911213841</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1635273669806357</v>
+        <v>-2.561619727658357</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.287466132154885</v>
+        <v>-5.202583013055942</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-177.9753329656562</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.9904279940685</v>
+        <v>-24.92512516559599</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2860458790655243</v>
+        <v>-2.15978736425975</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.621522193357449</v>
+        <v>-5.374612497682078</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-178.057913849065</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.64171215483771</v>
+        <v>-25.51156153928244</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2329121524358926</v>
+        <v>-1.86382155555732</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.957426299155708</v>
+        <v>-5.961058649382259</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-178.7612262913703</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.50874818864388</v>
+        <v>-26.91190755365572</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.2821740550347986</v>
+        <v>-2.838039286906862</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.526391897741018</v>
+        <v>-4.711052040670046</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-177.4777822268023</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.66419651554309</v>
+        <v>-27.70462334957448</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3849409793773508</v>
+        <v>-2.780999243790565</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.130531365292565</v>
+        <v>-5.454024636221377</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-180.5130744904487</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.17334493323613</v>
+        <v>-29.48657590593794</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4009084758046951</v>
+        <v>-2.568611007478045</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.369897141496721</v>
+        <v>-5.286801045345419</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-175.8012633239251</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.43162863057403</v>
+        <v>-30.83064945127303</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5816892827226091</v>
+        <v>-2.467066334852222</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.772003289279875</v>
+        <v>-5.989762008697917</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-183.9570878927616</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58317308549001</v>
+        <v>-31.99550911639105</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.74816485554793</v>
+        <v>-2.280003154110323</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.231213037268596</v>
+        <v>-6.354545478059042</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-171.6713757947962</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.86703606675561</v>
+        <v>-33.28607248156776</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.394261780031341</v>
+        <v>-3.022829079455646</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.015392718135502</v>
+        <v>-5.58988035903921</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-191.4814763599737</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.70658356851476</v>
+        <v>-36.1035020253232</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.606361564938712</v>
+        <v>-3.152568654682968</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.653236999027561</v>
+        <v>-6.117653539329545</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-160.0109563269935</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.34414664057419</v>
+        <v>-37.9807975491018</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.648592806255124</v>
+        <v>-3.000119642558826</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.89104318204117</v>
+        <v>-6.018010690374952</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-218.3441601577345</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.19207634460667</v>
+        <v>-39.93253553593949</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.261395593974844</v>
+        <v>-3.713758196908667</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.362514559252114</v>
+        <v>-5.902830577597302</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-25.03294288016935</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.83547933536862</v>
+        <v>-41.57498761486583</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.703748046286441</v>
+        <v>-3.795253052373272</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.46969625679549</v>
+        <v>-5.738843509267241</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>220.9606252683697</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.9243490758164</v>
+        <v>-43.85541842237307</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.730344243642459</v>
+        <v>-3.227737135261785</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.945836635564337</v>
+        <v>-6.135444635318249</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>159.3107159465453</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.02206547418987</v>
+        <v>-45.64518116720643</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.431897173017286</v>
+        <v>-3.560399829507279</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.679500562041062</v>
+        <v>-6.846956471680982</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>192.0994962749074</v>
       </c>
       <c r="E101" t="n">
-        <v>-41.79452602372121</v>
+        <v>-47.84321265297869</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.866867224959842</v>
+        <v>-3.184391200379717</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.067633928198573</v>
+        <v>-6.890962422490084</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>171.5868019117687</v>
       </c>
       <c r="E102" t="n">
-        <v>-43.83986404702598</v>
+        <v>-49.71607506978071</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.470747575147443</v>
+        <v>-3.656811044922842</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.460651412216132</v>
+        <v>-7.25268537355252</v>
       </c>
     </row>
   </sheetData>
